--- a/src/main/webapp/resources/movieRoomFile/MR123.xlsx
+++ b/src/main/webapp/resources/movieRoomFile/MR123.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3396" uniqueCount="2">
+<x:sst xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3384" uniqueCount="2">
   <x:si>
     <x:t>.</x:t>
   </x:si>
@@ -1005,31 +1005,31 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="D2" t="s">
-        <x:v>1</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="E2" t="s">
-        <x:v>1</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="F2" t="s">
-        <x:v>1</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="G2" t="s">
-        <x:v>1</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="H2" t="s">
         <x:v>0</x:v>
       </x:c>
       <x:c r="I2" t="s">
-        <x:v>1</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="J2" t="s">
-        <x:v>1</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="K2" t="s">
-        <x:v>1</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="L2" t="s">
-        <x:v>1</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="M2" t="s">
         <x:v>0</x:v>
@@ -1085,31 +1085,31 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="D3" t="s">
-        <x:v>1</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="E3" t="s">
-        <x:v>1</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="F3" t="s">
-        <x:v>1</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="G3" t="s">
-        <x:v>1</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="H3" t="s">
         <x:v>0</x:v>
       </x:c>
       <x:c r="I3" t="s">
-        <x:v>1</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="J3" t="s">
-        <x:v>1</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="K3" t="s">
-        <x:v>1</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="L3" t="s">
-        <x:v>1</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="M3" t="s">
         <x:v>0</x:v>
@@ -1174,10 +1174,10 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="G4" t="s">
-        <x:v>0</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="H4" t="s">
-        <x:v>0</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="I4" t="s">
         <x:v>0</x:v>
@@ -1254,10 +1254,10 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="G5" t="s">
-        <x:v>0</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="H5" t="s">
-        <x:v>0</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="I5" t="s">
         <x:v>0</x:v>
